--- a/Scheme/Decimation.xlsx
+++ b/Scheme/Decimation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Частота кварцевого генератора,гц</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Частота для I2S шины</t>
+  </si>
+  <si>
+    <t>Частота для CIC компенсатора TX,гц</t>
+  </si>
+  <si>
+    <t>Частота для Гильберта RX,гц</t>
+  </si>
+  <si>
+    <t>Clock rate при расчёте Гильберта RX</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>49152000</v>
+        <v>122880000</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -438,87 +447,86 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>256</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="3">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <f>C2</f>
-        <v>49152000</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <f>C2</f>
+        <v>122880000</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <f>MROUND(C8/C9/C3,1)</f>
-        <v>512</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <f>C8/C10</f>
-        <v>96000</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4">
-        <f>C8/C10/C9</f>
-        <v>48000</v>
+        <f>C9/C11</f>
+        <v>480000</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
-        <f>C12-C3</f>
-        <v>0</v>
+        <f>C9/C11/C10</f>
+        <v>48000</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4">
-        <f>C8*C4/C10</f>
-        <v>1536000</v>
+        <f>C13-C3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -526,16 +534,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <f>C8*C5/C10</f>
-        <v>1344000</v>
+        <f>C12*C4</f>
+        <v>6240000</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C13*C5</f>
+        <v>12288000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C13*C6</f>
+        <v>6240000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
-        <f>C12*256</f>
+      <c r="C18">
+        <f>C13*256</f>
         <v>12288000</v>
       </c>
     </row>

--- a/Scheme/Decimation.xlsx
+++ b/Scheme/Decimation.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="C15" s="4">
         <f>C12*C4</f>
-        <v>6240000</v>
+        <v>3360000</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">

--- a/Scheme/Decimation.xlsx
+++ b/Scheme/Decimation.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>256</v>
+        <v>2560</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -508,7 +508,7 @@
       </c>
       <c r="C12" s="4">
         <f>C9/C11</f>
-        <v>480000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
       </c>
       <c r="C15" s="4">
         <f>C12*C4</f>
-        <v>3360000</v>
+        <v>3072000</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
